--- a/downloaded_files/SBES250_Lecture-35356.xlsx
+++ b/downloaded_files/SBES250_Lecture-35356.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Basel Bahaa Alsayed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة عمرو مصطفى عبد الصالح عرابي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jumana Amr Moustafa Abd ElSaleh Orabi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230026</x:t>
   </x:si>
   <x:si>
@@ -141,15 +150,6 @@
     <x:t>Sama Mohamed Eid Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيله احمد على حنفى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200324</x:t>
   </x:si>
   <x:si>
@@ -213,6 +213,24 @@
     <x:t>omar sameh ramadan ali mansour</x:t>
   </x:si>
   <x:si>
+    <x:t>1210368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام محروس مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Mahrous Mabrouk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد حامد سيد أبو طالب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Hamed Sayed Abu-Taleb</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210267</x:t>
   </x:si>
   <x:si>
@@ -357,6 +375,15 @@
     <x:t>Marwan mohamed mohamed ramzy</x:t>
   </x:si>
   <x:si>
+    <x:t>1220315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم محمد على سليمان عيطة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Mohamed Ali Soliman Aitah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210378</x:t>
   </x:si>
   <x:si>
@@ -375,6 +402,15 @@
     <x:t>Malak Osama Abdulhameed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه الله نبيل عبد العظيم المتولى سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mennat Allah Nabil Abdel Azim El/Metwally</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220321</x:t>
   </x:si>
   <x:si>
@@ -418,15 +454,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Mahmoud Mohamed Elsadek Mohamed Abdelmotaal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيي زكريا فوزي أحمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yehia Zakria Fawzi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210168</x:t>
@@ -560,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -870,7 +897,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.100625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1047,7 +1074,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45927.454365544</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1079,7 +1106,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1111,7 +1138,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.668796412</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1143,7 +1170,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649821412</x:v>
+        <x:v>45906.668796412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +1202,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4155171296</x:v>
+        <x:v>45906.6649821412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +1234,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45907.4155171296</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1239,7 +1266,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1298,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45906.6648645833</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1330,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45927.4674986921</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1362,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45906.4145591782</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1591,7 +1618,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45927.4152807523</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1650,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650606481</x:v>
+        <x:v>45927.4151804051</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1682,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1714,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4153455208</x:v>
+        <x:v>45906.6650606481</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1746,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1778,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.4153455208</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1810,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1842,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1874,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6669674421</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1906,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1938,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4157087616</x:v>
+        <x:v>45927.5260239236</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1970,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4160790162</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +2002,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2034,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2066,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2098,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4200395833</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2130,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2162,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2194,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4371306366</x:v>
+        <x:v>45927.4145367708</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2226,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2258,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.667694213</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2290,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6658353009</x:v>
+        <x:v>45927.4147015857</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2322,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4371306366</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2354,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2386,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.667694213</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2418,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.3050480324</x:v>
+        <x:v>45927.4803576389</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2435,102 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45907.4169562847</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45906.4156043171</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45927.5054733449</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES250_Lecture-35356.xlsx
+++ b/downloaded_files/SBES250_Lecture-35356.xlsx
@@ -1586,7 +1586,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45927.7269025463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -2098,7 +2098,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45927.769408831</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/SBES250_Lecture-35356.xlsx
+++ b/downloaded_files/SBES250_Lecture-35356.xlsx
@@ -69,15 +69,6 @@
     <x:t>Jumana Amr Moustafa Abd ElSaleh Orabi</x:t>
   </x:si>
   <x:si>
-    <x:t>1230026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جهاد خميس محمود مراد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gehad khamis Mahmoud Morad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210215</x:t>
   </x:si>
   <x:si>
@@ -319,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جميل اسماعيل اسماعيل العباسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Jameel Ismail Ismail AlAbasy</x:t>
   </x:si>
   <x:si>
     <x:t>1220099</x:t>
@@ -1106,7 +1106,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45906.6645066782</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1138,7 +1138,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6645066782</x:v>
+        <x:v>45906.668796412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1170,7 +1170,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.668796412</x:v>
+        <x:v>45906.6649821412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1202,7 +1202,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649821412</x:v>
+        <x:v>45907.4155171296</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1234,7 +1234,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4155171296</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1266,7 +1266,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45906.6648645833</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1298,7 +1298,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45927.4674986921</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1330,7 +1330,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4674986921</x:v>
+        <x:v>45906.4145591782</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1362,7 +1362,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1394,7 +1394,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1426,7 +1426,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45907.4232127315</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1458,7 +1458,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1490,7 +1490,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45906.810418669</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1522,7 +1522,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1554,7 +1554,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45927.7269025463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1586,7 +1586,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.7269025463</x:v>
+        <x:v>45927.4152807523</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1618,7 +1618,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4152807523</x:v>
+        <x:v>45927.4151804051</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1650,7 +1650,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4151804051</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1682,7 +1682,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45906.6650606481</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1714,7 +1714,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650606481</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1746,7 +1746,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45906.4153455208</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1778,7 +1778,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4153455208</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1810,7 +1810,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1842,7 +1842,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1874,7 +1874,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1906,7 +1906,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45927.5260239236</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1938,7 +1938,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.5260239236</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1970,7 +1970,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45928.5532515856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>

--- a/downloaded_files/SBES250_Lecture-35356.xlsx
+++ b/downloaded_files/SBES250_Lecture-35356.xlsx
@@ -1458,7 +1458,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45928.8164965278</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/SBES250_Lecture-35356.xlsx
+++ b/downloaded_files/SBES250_Lecture-35356.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -454,6 +454,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Mahmoud Mohamed Elsadek Mohamed Abdelmotaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي زكريا فوزي أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yehia Zakria Fawzi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210168</x:t>
@@ -587,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1650,7 +1659,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45929.4040695949</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -2482,7 +2491,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45929.5954672106</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2514,7 +2523,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45927.5054733449</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2531,6 +2540,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45927.5054733449</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES250_Lecture-35356.xlsx
+++ b/downloaded_files/SBES250_Lecture-35356.xlsx
@@ -327,7 +327,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -372,7 +372,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1220315</x:t>
